--- a/Projekt/Oceny-L6.xlsx
+++ b/Projekt/Oceny-L6.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D418C-58C2-497C-A25F-5434E1BCECCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9AB838-4327-43AF-91ED-029C5E401D2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Indeks</t>
   </si>
@@ -46,9 +46,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Odbijam</t>
-  </si>
-  <si>
     <t>Ocena ze sprawozdania personalnego</t>
   </si>
   <si>
@@ -56,6 +53,12 @@
   </si>
   <si>
     <t>chociaż boli mnie wklejenie kodu jako obrazków</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Odbijam 2</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="C2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +413,7 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.3">
@@ -426,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -446,10 +450,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
@@ -463,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -480,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -497,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -514,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -531,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -548,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
@@ -562,7 +566,7 @@
         <v>156327</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -585,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -602,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
@@ -619,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
@@ -636,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
@@ -656,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>5</v>

--- a/Projekt/Oceny-L6.xlsx
+++ b/Projekt/Oceny-L6.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9AB838-4327-43AF-91ED-029C5E401D2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A868CC6-C484-41F4-94A0-F4CD8272896C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="2736" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Indeks</t>
   </si>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,13 +674,13 @@
         <v>156343</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
